--- a/Main Assesment/Data/bb12.xlsx
+++ b/Main Assesment/Data/bb12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/wsp25_ic_ac_uk/Documents/Documents/bb data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonporteus/Documents/GitHub/ssb_s5/Main Assesment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84B9505B-973E-4FEE-8EAA-B58691684EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE47A59B-A99A-6B4B-B9F0-83BBB561D270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="885" windowWidth="14400" windowHeight="13170" xr2:uid="{75E429BC-C2FA-4C1B-B988-F11BBA0A937C}"/>
+    <workbookView xWindow="1480" yWindow="880" windowWidth="26380" windowHeight="16500" xr2:uid="{75E429BC-C2FA-4C1B-B988-F11BBA0A937C}"/>
   </bookViews>
   <sheets>
     <sheet name="End point" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +108,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,7 +255,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -283,6 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,6 +304,2001 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0206441102537458E-2"/>
+                  <c:y val="0.34411495494471134"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'End point'!$B$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69897000399999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39794000899999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6910013000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.204119983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.50514997800000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.80617997399999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.10720997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4082399649999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7092699609999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.010299957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'End point'!$B$24:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.8945977918433181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4847712556842447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3201229083865451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0747935920600371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9679397408759831</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8464453629314881</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6471750654546264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.464806136122863</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2584277461467392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0962145853464054</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9726077749882642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4905-B64F-A1EA-99F47510896E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="524723904"/>
+        <c:axId val="2068611168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="524723904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2068611168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2068611168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524723904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9695100612423444E-2"/>
+                  <c:y val="0.35659631087780697"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'End point'!$B$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69897000399999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39794000899999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6910013000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.204119983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.50514997800000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.80617997399999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.10720997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4082399649999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7092699609999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.010299957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'End point'!$B$28:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.8873992545304938</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4914632508298871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3849847701232259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9023429011401962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8078900302925467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6108995977087739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5113819626373592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5348190485475546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3869000790623756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0749078229667961</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9970585737274003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED61-BE40-A76E-F007727BBC4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1563270047"/>
+        <c:axId val="1563325231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1563270047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563325231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1563325231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563270047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77500B92-4C71-6A07-8CD3-A4A5D42FE5A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8DA7CA-8DBD-12BC-76C4-432385570FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,412 +2618,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5BF424-4EA0-4546-A448-126221F3F865}">
-  <dimension ref="A3:O22"/>
+  <dimension ref="A3:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="137" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:L25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="12"/>
+      <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>6</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>7</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>8</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>9</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>10</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>11</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>12</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>79388.25</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>32118.25</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>21181.25</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>11011.25</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>8318.25</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>5907.25</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>3910.25</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>2192.25</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>1674.25</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>1046.25</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>1130.25</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="O15" s="14"/>
+      <c r="M15" s="4"/>
+      <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>78973.25</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>31367.25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>23025.25</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>14943.25</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>10214.25</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>6959.25</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>5429.25</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>2317.25</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>1560.25</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>1200.25</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>940.25</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>78909.25</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>31710.25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>21168.25</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>13658.25</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>9446.25</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>6819.25</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>4988.25</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>3522.25</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>2370.25</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>1520.25</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>1243.25</v>
       </c>
-      <c r="M17" s="8"/>
+      <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>78588.25</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>29914.25</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>19550.25</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>11843.25</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>9288.25</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>9461.25</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>5724.25</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>3960.25</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>854.25</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>756.25</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>630.25</v>
       </c>
-      <c r="M18" s="8"/>
+      <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>78849.25</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>30433.25</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>19688.25</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>11895.25</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>9033.25</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>9626.25</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>5706.25</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>3265.25</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>2017.25</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>423.25</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>351.25</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>78242.25</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>28460.25</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>17922.25</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>12620.25</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>14157.25</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>7472.25</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>2652.25</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>1818.25</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>1518.25</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>2083.25</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>852.25</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>77495.25</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>29254.25</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>20390.25</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>11077.25</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>7424.25</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>5846.25</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>3846.25</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>2827.25</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>2073.25</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>1766.25</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>1370.25</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>77161.25</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>31007.25</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>24265.25</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>7986.25</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>6425.25</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>4082.25</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>3246.25</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>3426.25</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>2437.25</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>1188.25</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>993.25</v>
       </c>
-      <c r="M22" s="11"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>AVERAGE(B15:B22)</f>
+        <v>78450.875</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:L23" si="0">AVERAGE(C15:C22)</f>
+        <v>30533.125</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>20898.875</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>11879.375</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>9288.375</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>7021.75</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>4437.875</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>2916.125</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1813.125</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1248</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>938.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f>LOG10(B23)</f>
+        <v>4.8945977918433181</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:L24" si="1">LOG10(C23)</f>
+        <v>4.4847712556842447</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>4.3201229083865451</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>4.0747935920600371</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>3.9679397408759831</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>3.8464453629314881</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>3.6471750654546264</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>3.464806136122863</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>3.2584277461467392</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>3.0962145853464054</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>2.9726077749882642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.69897000399999998</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.39794000899999998</v>
+      </c>
+      <c r="E25" s="14">
+        <v>9.6910013000000003E-2</v>
+      </c>
+      <c r="F25" s="14">
+        <v>-0.204119983</v>
+      </c>
+      <c r="G25" s="14">
+        <v>-0.50514997800000006</v>
+      </c>
+      <c r="H25" s="14">
+        <v>-0.80617997399999997</v>
+      </c>
+      <c r="I25" s="14">
+        <v>-1.10720997</v>
+      </c>
+      <c r="J25" s="14">
+        <v>-1.4082399649999999</v>
+      </c>
+      <c r="K25" s="14">
+        <v>-1.7092699609999999</v>
+      </c>
+      <c r="L25" s="14">
+        <v>-2.010299957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f>LOG10(B22)</f>
+        <v>4.8873992545304938</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:L28" si="2">LOG10(C22)</f>
+        <v>4.4914632508298871</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>4.3849847701232259</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>3.9023429011401962</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>3.8078900302925467</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>3.6108995977087739</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>3.5113819626373592</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>3.5348190485475546</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>3.3869000790623756</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>3.0749078229667961</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>2.9970585737274003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f>_xlfn.STDEV.P(B15:B22)/B23</f>
+        <v>9.1908822611678782E-3</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:L31" si="3">_xlfn.STDEV.P(C15:C22)/C23</f>
+        <v>3.865508030931087E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>9.0170613298079391E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.16207465853448857</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.23236796991373748</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.24793553461672813</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>0.2492211756875822</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0.24052097742241607</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0.26870494764907454</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>0.4015344105761115</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>0.32965971380122444</v>
+      </c>
+      <c r="M31">
+        <f>AVERAGE(B31:L31)</f>
+        <v>0.20636690582453826</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B15:L22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>